--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业应交增值税.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业应交增值税.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:EF1"/>
+  <dimension ref="B1:FY1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,6 +1109,231 @@
           <t>黑色金属矿采选业应交增值税_累计增长</t>
         </is>
       </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>专用设备制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>仪器仪表制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>其他制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>其他采矿业应交增值税</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>农副食品加工业应交增值税</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>化学原料和化学制品制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>化学纤维制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>医药制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>印刷和记录媒介复制业应交增值税</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>家具制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>工业企业应交增值税</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>废弃资源综合利用业应交增值税</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>开采专业及辅助性活动应交增值税</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>文教、工美、体育和娱乐用品制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>有色金属冶炼和压延加工业应交增值税</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>有色金属矿采选业应交增值税</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>木材加工和木、竹、藤、棕、草制品业应交增值税</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>橡胶和塑料制品业应交增值税</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>水的生产和供应业应交增值税</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>汽车制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>烟草制品业应交增值税</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>煤炭开采和洗选业应交增值税</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>燃气生产和供应业应交增值税</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>电力、热力、燃气及水生产和供应业应交增值税</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>电力、热力生产和供应业应交增值税</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>电气机械和器材制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>皮革、毛皮、羽毛及其制品和制鞋业应交增值税</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>石油、煤炭及其他燃料加工业应交增值税</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>石油和天然气开采业应交增值税</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>纺织业应交增值税</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>纺织服装、服饰业应交增值税</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>计算机、通信和其他电子设备制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>通用设备制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>造纸和纸制品业应交增值税</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>酒、饮料和精制茶制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>采矿业应交增值税</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>金属制品、机械和设备修理业应交增值税</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>金属制品业应交增值税</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>铁路、船舶、航空航天和其他运输设备制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>非金属矿物制品业应交增值税</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>非金属矿采选业应交增值税</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>食品制造业应交增值税</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>黑色金属冶炼和压延加工业应交增值税</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>黑色金属矿采选业应交增值税</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业应交增值税.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业应交增值税.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:FY1"/>
+  <dimension ref="B1:EF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,231 +1109,6 @@
           <t>黑色金属矿采选业应交增值税_累计增长</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>专用设备制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>仪器仪表制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>其他制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>其他采矿业应交增值税</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>农副食品加工业应交增值税</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>化学原料和化学制品制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>化学纤维制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>医药制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>印刷和记录媒介复制业应交增值税</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>家具制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>工业企业应交增值税</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>废弃资源综合利用业应交增值税</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>开采专业及辅助性活动应交增值税</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>文教、工美、体育和娱乐用品制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>有色金属冶炼和压延加工业应交增值税</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>有色金属矿采选业应交增值税</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>木材加工和木、竹、藤、棕、草制品业应交增值税</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>橡胶和塑料制品业应交增值税</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>水的生产和供应业应交增值税</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>汽车制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>烟草制品业应交增值税</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>煤炭开采和洗选业应交增值税</t>
-        </is>
-      </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>燃气生产和供应业应交增值税</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>电力、热力、燃气及水生产和供应业应交增值税</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>电力、热力生产和供应业应交增值税</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>电气机械和器材制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>皮革、毛皮、羽毛及其制品和制鞋业应交增值税</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>石油、煤炭及其他燃料加工业应交增值税</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>石油和天然气开采业应交增值税</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>纺织业应交增值税</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>纺织服装、服饰业应交增值税</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>计算机、通信和其他电子设备制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>通用设备制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>造纸和纸制品业应交增值税</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>酒、饮料和精制茶制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>采矿业应交增值税</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>金属制品、机械和设备修理业应交增值税</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>金属制品业应交增值税</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>铁路、船舶、航空航天和其他运输设备制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>非金属矿物制品业应交增值税</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>非金属矿采选业应交增值税</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>食品制造业应交增值税</t>
-        </is>
-      </c>
-      <c r="FX1" s="1" t="inlineStr">
-        <is>
-          <t>黑色金属冶炼和压延加工业应交增值税</t>
-        </is>
-      </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>黑色金属矿采选业应交增值税</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
